--- a/State_Daily_Hospital_Cost.xlsx
+++ b/State_Daily_Hospital_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/Common_Health/Measles_USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{D55A2A53-69CB-4040-898B-716DB1C27E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F93B6BC-EF70-4871-AC7F-4F4A468C0C4E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{D55A2A53-69CB-4040-898B-716DB1C27E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE76D58F-5CBE-404D-8EC5-E28842D77163}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47D8A109-0E8E-421B-9B7F-26DF7947B33F}"/>
   </bookViews>
@@ -285,10 +285,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD01A547-951E-43F8-BB7B-CF9D26C0E579}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +616,7 @@
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -642,8 +638,9 @@
         <f>ROUND(1.055020226*B2,2)</f>
         <v>3304.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -655,7 +652,7 @@
         <v>2045.68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -667,7 +664,7 @@
         <v>3012.08</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -679,7 +676,7 @@
         <v>3515.33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -691,7 +688,7 @@
         <v>2432.88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -703,7 +700,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -715,7 +712,7 @@
         <v>3844.49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -727,7 +724,7 @@
         <v>3621.88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -739,7 +736,7 @@
         <v>3660.92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -751,7 +748,7 @@
         <v>4074.49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -763,7 +760,7 @@
         <v>3088.04</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -775,7 +772,7 @@
         <v>2516.2199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -787,7 +784,7 @@
         <v>3168.23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -799,7 +796,7 @@
         <v>4166.2700000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
